--- a/cycle/daily_limit_up_market/20250108.xlsx
+++ b/cycle/daily_limit_up_market/20250108.xlsx
@@ -663,34 +663,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>002379</t>
+          <t>300715</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>凯伦股份</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.03039455413818</v>
+        <v>19.95073890686035</v>
       </c>
       <c r="F4" t="n">
-        <v>10.86</v>
+        <v>9.74</v>
       </c>
       <c r="G4" t="n">
-        <v>2051022688</v>
+        <v>73141283</v>
       </c>
       <c r="H4" t="n">
-        <v>12341018957.58</v>
+        <v>3254707452.24</v>
       </c>
       <c r="I4" t="n">
-        <v>12341019033.6</v>
+        <v>3682259829.76</v>
       </c>
       <c r="J4" t="n">
-        <v>16.96533393859863</v>
+        <v>2.247246026992798</v>
       </c>
       <c r="K4" t="n">
-        <v>64046850</v>
+        <v>90273514</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -699,23 +699,23 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>100715</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>装修建材</t>
         </is>
       </c>
     </row>
@@ -728,34 +728,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>300715</t>
+          <t>002379</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>凯伦股份</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.95073890686035</v>
+        <v>10.03039455413818</v>
       </c>
       <c r="F5" t="n">
-        <v>9.74</v>
+        <v>10.86</v>
       </c>
       <c r="G5" t="n">
-        <v>73141283</v>
+        <v>2051022688</v>
       </c>
       <c r="H5" t="n">
-        <v>3254707452.24</v>
+        <v>12341018957.58</v>
       </c>
       <c r="I5" t="n">
-        <v>3682259829.76</v>
+        <v>12341019033.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.247246026992798</v>
+        <v>16.96533393859863</v>
       </c>
       <c r="K5" t="n">
-        <v>90273514</v>
+        <v>64046850</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -764,23 +764,23 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>100715</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>装修建材</t>
+          <t>有色金属</t>
         </is>
       </c>
     </row>
@@ -6188,57 +6188,57 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>002184</t>
+          <t>603893</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海得控制</t>
+          <t>瑞芯微</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.994154930114746</v>
+        <v>10.00185394287109</v>
       </c>
       <c r="F20" t="n">
-        <v>18.82</v>
+        <v>118.67</v>
       </c>
       <c r="G20" t="n">
-        <v>18.82</v>
+        <v>118.67</v>
       </c>
       <c r="H20" t="n">
-        <v>1978504192</v>
+        <v>1946509552</v>
       </c>
       <c r="I20" t="n">
-        <v>4518258625.28</v>
+        <v>49686428965.67</v>
       </c>
       <c r="J20" t="n">
-        <v>6622915485.76</v>
+        <v>49711052872</v>
       </c>
       <c r="K20" t="n">
-        <v>47.65119552612305</v>
+        <v>3.998978853225708</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>19.40385627746582</v>
+        <v>8.314794540405273</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>132842</t>
+          <t>111405</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>6/6</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -6251,57 +6251,57 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>605033</t>
+          <t>300570</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>美邦股份</t>
+          <t>太辰光</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.994320869445801</v>
+        <v>7.625836849212646</v>
       </c>
       <c r="F21" t="n">
-        <v>19.37</v>
+        <v>99.64</v>
       </c>
       <c r="G21" t="n">
-        <v>19.37</v>
+        <v>111.1</v>
       </c>
       <c r="H21" t="n">
-        <v>131771388</v>
+        <v>4099076160</v>
       </c>
       <c r="I21" t="n">
-        <v>2618824000</v>
+        <v>19160268618.72</v>
       </c>
       <c r="J21" t="n">
-        <v>2618824000</v>
+        <v>22630921027.88</v>
       </c>
       <c r="K21" t="n">
-        <v>5.11005163192749</v>
+        <v>22.4446964263916</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>6.984667301177979</v>
+        <v>18.85936546325684</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>093943</t>
+          <t>134712</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>农药兽药</t>
+          <t>通信设备</t>
         </is>
       </c>
     </row>
@@ -6314,57 +6314,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>002733</t>
+          <t>301157</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>雄韬股份</t>
+          <t>华塑科技</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9.989372253417969</v>
+        <v>20.00341796875</v>
       </c>
       <c r="F22" t="n">
-        <v>20.7</v>
+        <v>70.25</v>
       </c>
       <c r="G22" t="n">
-        <v>20.7</v>
+        <v>70.25</v>
       </c>
       <c r="H22" t="n">
-        <v>153288178</v>
+        <v>810332336</v>
       </c>
       <c r="I22" t="n">
-        <v>7635459111.3</v>
+        <v>1451368863.75</v>
       </c>
       <c r="J22" t="n">
-        <v>7953248678.4</v>
+        <v>4215000000</v>
       </c>
       <c r="K22" t="n">
-        <v>2.007582902908325</v>
+        <v>60.51333999633789</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>14.07584571838379</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>093254</t>
+          <t>094051</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -6377,57 +6377,57 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>300561</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>汇金科技</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.12048244476318</v>
+        <v>3.709949493408203</v>
       </c>
       <c r="F23" t="n">
-        <v>4.57</v>
+        <v>61.5</v>
       </c>
       <c r="G23" t="n">
-        <v>4.57</v>
+        <v>71.16</v>
       </c>
       <c r="H23" t="n">
-        <v>261682904</v>
+        <v>5283373056</v>
       </c>
       <c r="I23" t="n">
-        <v>2892649222.83</v>
+        <v>11090680789.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2916942378.56</v>
+        <v>20178640032</v>
       </c>
       <c r="K23" t="n">
-        <v>9.049522399902344</v>
+        <v>47.43510818481445</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.927710890769958</v>
+        <v>17.18381118774414</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>093415</t>
+          <t>145412</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>房地产开</t>
+          <t>软件开发</t>
         </is>
       </c>
     </row>
@@ -6440,57 +6440,57 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>603063</t>
+          <t>301486</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>禾望电气</t>
+          <t>致尚科技</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.995673179626465</v>
+        <v>1.885262489318848</v>
       </c>
       <c r="F24" t="n">
-        <v>25.42</v>
+        <v>50.26</v>
       </c>
       <c r="G24" t="n">
-        <v>25.42</v>
+        <v>59.2</v>
       </c>
       <c r="H24" t="n">
-        <v>807610400</v>
+        <v>833625248</v>
       </c>
       <c r="I24" t="n">
-        <v>11286615463.18</v>
+        <v>3618370944.3</v>
       </c>
       <c r="J24" t="n">
-        <v>11286615437.76</v>
+        <v>6467506808.7</v>
       </c>
       <c r="K24" t="n">
-        <v>7.233669757843018</v>
+        <v>23.19572830200195</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>4.846386909484863</v>
+        <v>5.169268131256104</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>093758</t>
+          <t>133542</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>风电设备</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -6503,57 +6503,57 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>301606</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中恒电气</t>
+          <t>绿联科技</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.02865314483643</v>
+        <v>16.8863468170166</v>
       </c>
       <c r="F25" t="n">
-        <v>15.36</v>
+        <v>47</v>
       </c>
       <c r="G25" t="n">
-        <v>15.36</v>
+        <v>48.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2722317120</v>
+        <v>835917232</v>
       </c>
       <c r="I25" t="n">
-        <v>8572484121.599999</v>
+        <v>1466789489</v>
       </c>
       <c r="J25" t="n">
-        <v>8656357785.6</v>
+        <v>19500760976</v>
       </c>
       <c r="K25" t="n">
-        <v>32.8873405456543</v>
+        <v>60.22220993041992</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>9.742120742797852</v>
+        <v>18.03034019470215</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>102421</t>
+          <t>100818</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12/7</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -6566,57 +6566,57 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>002346</t>
+          <t>300807</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>柘中股份</t>
+          <t>天迈科技</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.016736507415771</v>
+        <v>19.9890022277832</v>
       </c>
       <c r="F26" t="n">
-        <v>12.43</v>
+        <v>43.64</v>
       </c>
       <c r="G26" t="n">
-        <v>13.15</v>
+        <v>43.64</v>
       </c>
       <c r="H26" t="n">
-        <v>626772208</v>
+        <v>138644280</v>
       </c>
       <c r="I26" t="n">
-        <v>4889961428.22</v>
+        <v>2140716079.96</v>
       </c>
       <c r="J26" t="n">
-        <v>5488782520.32</v>
+        <v>2969247576.68</v>
       </c>
       <c r="K26" t="n">
-        <v>12.95210266113281</v>
+        <v>6.476537704467773</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>12.97071170806885</v>
+        <v>0</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>093000</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -6629,44 +6629,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>002418</t>
+          <t>603063</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>康盛股份</t>
+          <t>禾望电气</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.13071918487549</v>
+        <v>9.995673179626465</v>
       </c>
       <c r="F27" t="n">
-        <v>3.37</v>
+        <v>25.42</v>
       </c>
       <c r="G27" t="n">
-        <v>3.37</v>
+        <v>25.42</v>
       </c>
       <c r="H27" t="n">
-        <v>966193504</v>
+        <v>807610400</v>
       </c>
       <c r="I27" t="n">
-        <v>3829668000</v>
+        <v>11286615463.18</v>
       </c>
       <c r="J27" t="n">
-        <v>3829668000</v>
+        <v>11286615437.76</v>
       </c>
       <c r="K27" t="n">
-        <v>26.11478233337402</v>
+        <v>7.233669757843018</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>11.11111164093018</v>
+        <v>4.846386909484863</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>094000</t>
+          <t>093758</t>
         </is>
       </c>
       <c r="O27" t="n">
@@ -6674,12 +6674,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>5/4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>风电设备</t>
         </is>
       </c>
     </row>
@@ -6692,57 +6692,57 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>600405</t>
+          <t>002733</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>动力源</t>
+          <t>雄韬股份</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2.218700408935547</v>
+        <v>9.989372253417969</v>
       </c>
       <c r="F28" t="n">
-        <v>6.17</v>
+        <v>20.7</v>
       </c>
       <c r="G28" t="n">
-        <v>6.94</v>
+        <v>20.7</v>
       </c>
       <c r="H28" t="n">
-        <v>954535936</v>
+        <v>153288178</v>
       </c>
       <c r="I28" t="n">
-        <v>3413709514.16</v>
+        <v>7635459111.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3781158533.28</v>
+        <v>7953248678.4</v>
       </c>
       <c r="K28" t="n">
-        <v>27.74987983703613</v>
+        <v>2.007582902908325</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>15.3724250793457</v>
+        <v>0</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>145541</t>
+          <t>093254</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -6755,57 +6755,57 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>603269</t>
+          <t>600793</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>海鸥股份</t>
+          <t>宜宾纸业</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10.03921508789062</v>
+        <v>-2.044790506362915</v>
       </c>
       <c r="F29" t="n">
-        <v>14.03</v>
+        <v>20.12</v>
       </c>
       <c r="G29" t="n">
-        <v>14.03</v>
+        <v>22.59</v>
       </c>
       <c r="H29" t="n">
-        <v>32680921</v>
+        <v>244553370</v>
       </c>
       <c r="I29" t="n">
-        <v>3094133787.31</v>
+        <v>3559308520.24</v>
       </c>
       <c r="J29" t="n">
-        <v>3094133787.31</v>
+        <v>3559308520.24</v>
       </c>
       <c r="K29" t="n">
-        <v>1.056221961975098</v>
+        <v>6.899765968322754</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5.890944480895996</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>093452</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>造纸印刷</t>
         </is>
       </c>
     </row>
@@ -6818,57 +6818,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>603500</t>
+          <t>605060</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>祥和实业</t>
+          <t>联德股份</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-7.120743274688721</v>
+        <v>-0.04997501522302628</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>10.66</v>
+        <v>22.01</v>
       </c>
       <c r="H30" t="n">
-        <v>516831600</v>
+        <v>271783536</v>
       </c>
       <c r="I30" t="n">
-        <v>3067166844</v>
+        <v>4811840000</v>
       </c>
       <c r="J30" t="n">
-        <v>3093725520</v>
+        <v>4823680000</v>
       </c>
       <c r="K30" t="n">
-        <v>16.59563827514648</v>
+        <v>5.671407699584961</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>6.398348331451416</v>
+        <v>12.79360389709473</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>144538</t>
+          <t>141131</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>交运设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -6881,57 +6881,57 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>301157</t>
+          <t>002190</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>华塑科技</t>
+          <t>成飞集成</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.00341796875</v>
+        <v>0.672182023525238</v>
       </c>
       <c r="F31" t="n">
-        <v>70.25</v>
+        <v>19.47</v>
       </c>
       <c r="G31" t="n">
-        <v>70.25</v>
+        <v>21.27</v>
       </c>
       <c r="H31" t="n">
-        <v>810332336</v>
+        <v>729504912</v>
       </c>
       <c r="I31" t="n">
-        <v>1451368863.75</v>
+        <v>6984460308.21</v>
       </c>
       <c r="J31" t="n">
-        <v>4215000000</v>
+        <v>6984460327.679999</v>
       </c>
       <c r="K31" t="n">
-        <v>60.51333999633789</v>
+        <v>10.47228717803955</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>14.07584571838379</v>
+        <v>5.842812538146973</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>094051</t>
+          <t>103545</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -6944,57 +6944,57 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>603893</t>
+          <t>605033</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>瑞芯微</t>
+          <t>美邦股份</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.00185394287109</v>
+        <v>9.994320869445801</v>
       </c>
       <c r="F32" t="n">
-        <v>118.67</v>
+        <v>19.37</v>
       </c>
       <c r="G32" t="n">
-        <v>118.67</v>
+        <v>19.37</v>
       </c>
       <c r="H32" t="n">
-        <v>1946509552</v>
+        <v>131771388</v>
       </c>
       <c r="I32" t="n">
-        <v>49686428965.67</v>
+        <v>2618824000</v>
       </c>
       <c r="J32" t="n">
-        <v>49711052872</v>
+        <v>2618824000</v>
       </c>
       <c r="K32" t="n">
-        <v>3.998978853225708</v>
+        <v>5.11005163192749</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>8.314794540405273</v>
+        <v>6.984667301177979</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>111405</t>
+          <t>093943</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>农药兽药</t>
         </is>
       </c>
     </row>
@@ -7007,57 +7007,57 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>600673</t>
+          <t>002184</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>东阳光</t>
+          <t>海得控制</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.19902515411377</v>
+        <v>9.994154930114746</v>
       </c>
       <c r="F33" t="n">
-        <v>12.95</v>
+        <v>18.82</v>
       </c>
       <c r="G33" t="n">
-        <v>13.54</v>
+        <v>18.82</v>
       </c>
       <c r="H33" t="n">
-        <v>2105779616</v>
+        <v>1978504192</v>
       </c>
       <c r="I33" t="n">
-        <v>38870175154.65</v>
+        <v>4518258625.28</v>
       </c>
       <c r="J33" t="n">
-        <v>39029671615.2</v>
+        <v>6622915485.76</v>
       </c>
       <c r="K33" t="n">
-        <v>5.493617534637451</v>
+        <v>47.65119552612305</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.692119598388672</v>
+        <v>19.40385627746582</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>141427</t>
+          <t>132842</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>6/6</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>综合行业</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -7070,44 +7070,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>002131</t>
+          <t>600446</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>利欧股份</t>
+          <t>金证股份</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>9.935897827148438</v>
+        <v>7.151515007019043</v>
       </c>
       <c r="F34" t="n">
-        <v>3.43</v>
+        <v>17.68</v>
       </c>
       <c r="G34" t="n">
-        <v>3.43</v>
+        <v>18.15</v>
       </c>
       <c r="H34" t="n">
-        <v>5013594880</v>
+        <v>1092676736</v>
       </c>
       <c r="I34" t="n">
-        <v>20069741990.76</v>
+        <v>16730142088.4</v>
       </c>
       <c r="J34" t="n">
-        <v>23226263549.44</v>
+        <v>16730142141.44</v>
       </c>
       <c r="K34" t="n">
-        <v>25.82436943054199</v>
+        <v>6.685346603393555</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.730769634246826</v>
+        <v>9.030303001403809</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>105106</t>
+          <t>133237</t>
         </is>
       </c>
       <c r="O34" t="n">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -7133,44 +7133,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>300570</t>
+          <t>002119</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>太辰光</t>
+          <t>康强电子</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.625836849212646</v>
+        <v>-1.920904040336609</v>
       </c>
       <c r="F35" t="n">
-        <v>99.64</v>
+        <v>17.36</v>
       </c>
       <c r="G35" t="n">
-        <v>111.1</v>
+        <v>19.47</v>
       </c>
       <c r="H35" t="n">
-        <v>4099076160</v>
+        <v>2089520608</v>
       </c>
       <c r="I35" t="n">
-        <v>19160268618.72</v>
+        <v>6514930240</v>
       </c>
       <c r="J35" t="n">
-        <v>22630921027.88</v>
+        <v>6514930240</v>
       </c>
       <c r="K35" t="n">
-        <v>22.4446964263916</v>
+        <v>31.35395050048828</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>18.85936546325684</v>
+        <v>11.35593223571777</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>134712</t>
+          <t>134648</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -7196,44 +7196,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>600601</t>
+          <t>603308</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>方正科技</t>
+          <t>应流股份</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2.477477550506592</v>
+        <v>4.350607872009277</v>
       </c>
       <c r="F36" t="n">
-        <v>4.33</v>
+        <v>16.31</v>
       </c>
       <c r="G36" t="n">
-        <v>4.88</v>
+        <v>17.19</v>
       </c>
       <c r="H36" t="n">
-        <v>1200988112</v>
+        <v>1071921056</v>
       </c>
       <c r="I36" t="n">
-        <v>18057369932.71</v>
+        <v>11075084352.71</v>
       </c>
       <c r="J36" t="n">
-        <v>18057369902.4</v>
+        <v>11075084466.88</v>
       </c>
       <c r="K36" t="n">
-        <v>6.757143974304199</v>
+        <v>9.717522621154785</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>6.981982231140137</v>
+        <v>8.509276390075684</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>145231</t>
+          <t>143350</t>
         </is>
       </c>
       <c r="O36" t="n">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -7259,44 +7259,44 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>600446</t>
+          <t>301082</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>金证股份</t>
+          <t>久盛电气</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.151515007019043</v>
+        <v>8.401083946228027</v>
       </c>
       <c r="F37" t="n">
-        <v>17.68</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>18.15</v>
+        <v>17.71</v>
       </c>
       <c r="H37" t="n">
-        <v>1092676736</v>
+        <v>621302928</v>
       </c>
       <c r="I37" t="n">
-        <v>16730142088.4</v>
+        <v>1463416384</v>
       </c>
       <c r="J37" t="n">
-        <v>16730142141.44</v>
+        <v>3620946784</v>
       </c>
       <c r="K37" t="n">
-        <v>6.685346603393555</v>
+        <v>42.59852981567383</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>9.030303001403809</v>
+        <v>6.910569190979004</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>133237</t>
+          <t>131712</t>
         </is>
       </c>
       <c r="O37" t="n">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>互联网服</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -7322,57 +7322,57 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>000981</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>山子高科</t>
+          <t>中恒电气</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.419354677200317</v>
+        <v>10.02865314483643</v>
       </c>
       <c r="F38" t="n">
-        <v>2.54</v>
+        <v>15.36</v>
       </c>
       <c r="G38" t="n">
-        <v>2.73</v>
+        <v>15.36</v>
       </c>
       <c r="H38" t="n">
-        <v>3285337008</v>
+        <v>2722317120</v>
       </c>
       <c r="I38" t="n">
-        <v>16573894848.08</v>
+        <v>8572484121.599999</v>
       </c>
       <c r="J38" t="n">
-        <v>25393576279.04</v>
+        <v>8656357785.6</v>
       </c>
       <c r="K38" t="n">
-        <v>20.63170433044434</v>
+        <v>32.8873405456543</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>12.5</v>
+        <v>9.742120742797852</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>140912</t>
+          <t>102421</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>12/7</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -7385,44 +7385,44 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>002379</t>
+          <t>603070</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>万控智造</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10.03039455413818</v>
+        <v>10.02210712432861</v>
       </c>
       <c r="F39" t="n">
-        <v>10.86</v>
+        <v>14.93</v>
       </c>
       <c r="G39" t="n">
-        <v>10.86</v>
+        <v>14.93</v>
       </c>
       <c r="H39" t="n">
-        <v>2051022688</v>
+        <v>67032953</v>
       </c>
       <c r="I39" t="n">
-        <v>12341018957.58</v>
+        <v>1280076327.55</v>
       </c>
       <c r="J39" t="n">
-        <v>12341019033.6</v>
+        <v>5986930000</v>
       </c>
       <c r="K39" t="n">
-        <v>16.96533393859863</v>
+        <v>5.236637115478516</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>10.03039455413818</v>
+        <v>0</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>094010</t>
         </is>
       </c>
       <c r="O39" t="n">
@@ -7430,12 +7430,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>有色金属</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -7448,44 +7448,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>002611</t>
+          <t>300943</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>东方精工</t>
+          <t>春晖智控</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.960552215576172</v>
+        <v>2.681159496307373</v>
       </c>
       <c r="F40" t="n">
-        <v>11.15</v>
+        <v>14.17</v>
       </c>
       <c r="G40" t="n">
-        <v>11.15</v>
+        <v>16.56</v>
       </c>
       <c r="H40" t="n">
-        <v>3041772784</v>
+        <v>475367936</v>
       </c>
       <c r="I40" t="n">
-        <v>11095050648.05</v>
+        <v>1903601866.79</v>
       </c>
       <c r="J40" t="n">
-        <v>13592366646.4</v>
+        <v>2888129400</v>
       </c>
       <c r="K40" t="n">
-        <v>28.66029167175293</v>
+        <v>24.66582870483398</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>9.763314247131348</v>
+        <v>9.927536964416504</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>132427</t>
+          <t>093930</t>
         </is>
       </c>
       <c r="O40" t="n">
@@ -7493,12 +7493,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -7511,57 +7511,57 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>300561</t>
+          <t>603269</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>汇金科技</t>
+          <t>海鸥股份</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.709949493408203</v>
+        <v>10.03921508789062</v>
       </c>
       <c r="F41" t="n">
-        <v>61.5</v>
+        <v>14.03</v>
       </c>
       <c r="G41" t="n">
-        <v>71.16</v>
+        <v>14.03</v>
       </c>
       <c r="H41" t="n">
-        <v>5283373056</v>
+        <v>32680921</v>
       </c>
       <c r="I41" t="n">
-        <v>11090680789.5</v>
+        <v>3094133787.31</v>
       </c>
       <c r="J41" t="n">
-        <v>20178640032</v>
+        <v>3094133787.31</v>
       </c>
       <c r="K41" t="n">
-        <v>47.43510818481445</v>
+        <v>1.056221961975098</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>17.18381118774414</v>
+        <v>0</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>145412</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>软件开发</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -7574,44 +7574,44 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>603308</t>
+          <t>600673</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>应流股份</t>
+          <t>东阳光</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.350607872009277</v>
+        <v>5.19902515411377</v>
       </c>
       <c r="F42" t="n">
-        <v>16.31</v>
+        <v>12.95</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19</v>
+        <v>13.54</v>
       </c>
       <c r="H42" t="n">
-        <v>1071921056</v>
+        <v>2105779616</v>
       </c>
       <c r="I42" t="n">
-        <v>11075084352.71</v>
+        <v>38870175154.65</v>
       </c>
       <c r="J42" t="n">
-        <v>11075084466.88</v>
+        <v>39029671615.2</v>
       </c>
       <c r="K42" t="n">
-        <v>9.717522621154785</v>
+        <v>5.493617534637451</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>8.509276390075684</v>
+        <v>8.692119598388672</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>143350</t>
+          <t>141427</t>
         </is>
       </c>
       <c r="O42" t="n">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>综合行业</t>
         </is>
       </c>
     </row>
@@ -7637,57 +7637,57 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>002122</t>
+          <t>002346</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>汇洲智能</t>
+          <t>柘中股份</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.05747127532959</v>
+        <v>4.016736507415771</v>
       </c>
       <c r="F43" t="n">
-        <v>3.83</v>
+        <v>12.43</v>
       </c>
       <c r="G43" t="n">
-        <v>3.83</v>
+        <v>13.15</v>
       </c>
       <c r="H43" t="n">
-        <v>1233524032</v>
+        <v>626772208</v>
       </c>
       <c r="I43" t="n">
-        <v>7613027110.54</v>
+        <v>4889961428.22</v>
       </c>
       <c r="J43" t="n">
-        <v>7661822099.52</v>
+        <v>5488782520.32</v>
       </c>
       <c r="K43" t="n">
-        <v>16.97731971740723</v>
+        <v>12.95210266113281</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>12.35632133483887</v>
+        <v>12.97071170806885</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>144954</t>
+          <t>093000</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -7700,44 +7700,44 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>600105</t>
+          <t>002229</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>永鼎股份</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.419878244400024</v>
+        <v>2.414654493331909</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>12.3</v>
       </c>
       <c r="G44" t="n">
-        <v>5.42</v>
+        <v>13.21</v>
       </c>
       <c r="H44" t="n">
-        <v>654319280</v>
+        <v>874222656</v>
       </c>
       <c r="I44" t="n">
-        <v>7309974010</v>
+        <v>6065920902.3</v>
       </c>
       <c r="J44" t="n">
-        <v>7309974000</v>
+        <v>6103155302.400001</v>
       </c>
       <c r="K44" t="n">
-        <v>8.930397987365723</v>
+        <v>14.60108375549316</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.896551609039307</v>
+        <v>6.328059673309326</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>132700</t>
+          <t>135757</t>
         </is>
       </c>
       <c r="O44" t="n">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>通信设备</t>
+          <t>造纸印刷</t>
         </is>
       </c>
     </row>
@@ -7763,44 +7763,44 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>002190</t>
+          <t>603813</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>成飞集成</t>
+          <t>原尚股份</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.672182023525238</v>
+        <v>0.8554319739341736</v>
       </c>
       <c r="F45" t="n">
-        <v>19.47</v>
+        <v>11.79</v>
       </c>
       <c r="G45" t="n">
-        <v>21.27</v>
+        <v>12.86</v>
       </c>
       <c r="H45" t="n">
-        <v>729504912</v>
+        <v>51609931</v>
       </c>
       <c r="I45" t="n">
-        <v>6984460308.21</v>
+        <v>1060416180</v>
       </c>
       <c r="J45" t="n">
-        <v>6984460327.679999</v>
+        <v>1238126850</v>
       </c>
       <c r="K45" t="n">
-        <v>10.47228717803955</v>
+        <v>4.883813858032227</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>5.842812538146973</v>
+        <v>6.586826801300049</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>103545</t>
+          <t>102027</t>
         </is>
       </c>
       <c r="O45" t="n">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>物流行业</t>
         </is>
       </c>
     </row>
@@ -7826,44 +7826,44 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>002119</t>
+          <t>002611</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>康强电子</t>
+          <t>东方精工</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1.920904040336609</v>
+        <v>9.960552215576172</v>
       </c>
       <c r="F46" t="n">
-        <v>17.36</v>
+        <v>11.15</v>
       </c>
       <c r="G46" t="n">
-        <v>19.47</v>
+        <v>11.15</v>
       </c>
       <c r="H46" t="n">
-        <v>2089520608</v>
+        <v>3041772784</v>
       </c>
       <c r="I46" t="n">
-        <v>6514930240</v>
+        <v>11095050648.05</v>
       </c>
       <c r="J46" t="n">
-        <v>6514930240</v>
+        <v>13592366646.4</v>
       </c>
       <c r="K46" t="n">
-        <v>31.35395050048828</v>
+        <v>28.66029167175293</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>11.35593223571777</v>
+        <v>9.763314247131348</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>134648</t>
+          <t>132427</t>
         </is>
       </c>
       <c r="O46" t="n">
@@ -7871,12 +7871,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -7889,44 +7889,44 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>600172</t>
+          <t>603015</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>黄河旋风</t>
+          <t>弘讯科技</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.105263233184814</v>
+        <v>9.989909172058105</v>
       </c>
       <c r="F47" t="n">
-        <v>4.85</v>
+        <v>10.9</v>
       </c>
       <c r="G47" t="n">
-        <v>5.23</v>
+        <v>10.9</v>
       </c>
       <c r="H47" t="n">
-        <v>1255626320</v>
+        <v>132135348</v>
       </c>
       <c r="I47" t="n">
-        <v>6189840387.5</v>
+        <v>4405987100</v>
       </c>
       <c r="J47" t="n">
-        <v>6994594727.999999</v>
+        <v>4405987187.2</v>
       </c>
       <c r="K47" t="n">
-        <v>20.3304615020752</v>
+        <v>3.034666776657104</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>9.684209823608398</v>
+        <v>4.339051723480225</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>103054</t>
+          <t>130306</t>
         </is>
       </c>
       <c r="O47" t="n">
@@ -7934,12 +7934,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>非金属材</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -7952,44 +7952,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>002229</t>
+          <t>002379</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.414654493331909</v>
+        <v>10.03039455413818</v>
       </c>
       <c r="F48" t="n">
-        <v>12.3</v>
+        <v>10.86</v>
       </c>
       <c r="G48" t="n">
-        <v>13.21</v>
+        <v>10.86</v>
       </c>
       <c r="H48" t="n">
-        <v>874222656</v>
+        <v>2051022688</v>
       </c>
       <c r="I48" t="n">
-        <v>6065920902.3</v>
+        <v>12341018957.58</v>
       </c>
       <c r="J48" t="n">
-        <v>6103155302.400001</v>
+        <v>12341019033.6</v>
       </c>
       <c r="K48" t="n">
-        <v>14.60108375549316</v>
+        <v>16.96533393859863</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>6.328059673309326</v>
+        <v>10.03039455413818</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>135757</t>
+          <t>092500</t>
         </is>
       </c>
       <c r="O48" t="n">
@@ -7997,12 +7997,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>造纸印刷</t>
+          <t>有色金属</t>
         </is>
       </c>
     </row>
@@ -8015,44 +8015,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>002366</t>
+          <t>600860</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>融发核电</t>
+          <t>京城股份</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.931330561637878</v>
+        <v>0.4784688949584961</v>
       </c>
       <c r="F49" t="n">
-        <v>4.75</v>
+        <v>10.5</v>
       </c>
       <c r="G49" t="n">
-        <v>5.13</v>
+        <v>11.5</v>
       </c>
       <c r="H49" t="n">
-        <v>555590000</v>
+        <v>189218857</v>
       </c>
       <c r="I49" t="n">
-        <v>5968205852.5</v>
+        <v>4569930078</v>
       </c>
       <c r="J49" t="n">
-        <v>9884453828</v>
+        <v>5750492832</v>
       </c>
       <c r="K49" t="n">
-        <v>9.170633316040039</v>
+        <v>4.179465770721436</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>7.29613733291626</v>
+        <v>3.732057332992554</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>112242</t>
+          <t>093904</t>
         </is>
       </c>
       <c r="O49" t="n">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -8078,57 +8078,57 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>002175</t>
+          <t>603500</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>东方智造</t>
+          <t>祥和实业</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.12048244476318</v>
+        <v>-7.120743274688721</v>
       </c>
       <c r="F50" t="n">
-        <v>4.57</v>
+        <v>9</v>
       </c>
       <c r="G50" t="n">
-        <v>4.57</v>
+        <v>10.66</v>
       </c>
       <c r="H50" t="n">
-        <v>1318352192</v>
+        <v>516831600</v>
       </c>
       <c r="I50" t="n">
-        <v>5834853647.39</v>
+        <v>3067166844</v>
       </c>
       <c r="J50" t="n">
-        <v>5834887890.400001</v>
+        <v>3093725520</v>
       </c>
       <c r="K50" t="n">
-        <v>23.53994941711426</v>
+        <v>16.59563827514648</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>7.951807022094727</v>
+        <v>6.398348331451416</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>141806</t>
+          <t>144538</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>仪器仪表</t>
+          <t>交运设备</t>
         </is>
       </c>
     </row>
@@ -8141,44 +8141,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>002717</t>
+          <t>000533</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>岭南股份</t>
+          <t>顺钠股份</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.907120704650879</v>
+        <v>10.06711387634277</v>
       </c>
       <c r="F51" t="n">
-        <v>3.55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>3.55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1748929328</v>
+        <v>1921887168</v>
       </c>
       <c r="I51" t="n">
-        <v>5682687634</v>
+        <v>5616199679.999999</v>
       </c>
       <c r="J51" t="n">
-        <v>6461829109.599999</v>
+        <v>5664691199.999999</v>
       </c>
       <c r="K51" t="n">
-        <v>32.11674880981445</v>
+        <v>36.39173126220703</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>10.83591365814209</v>
+        <v>13.15436172485352</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>142651</t>
+          <t>105542</t>
         </is>
       </c>
       <c r="O51" t="n">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>9/8</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>环保行业</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -8204,44 +8204,44 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>000533</t>
+          <t>002187</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>顺钠股份</t>
+          <t>广百股份</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>10.06711387634277</v>
+        <v>9.972298622131348</v>
       </c>
       <c r="F52" t="n">
-        <v>8.199999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="G52" t="n">
-        <v>8.199999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="H52" t="n">
-        <v>1921887168</v>
+        <v>765744112</v>
       </c>
       <c r="I52" t="n">
-        <v>5616199679.999999</v>
+        <v>4105861070.04</v>
       </c>
       <c r="J52" t="n">
-        <v>5664691199.999999</v>
+        <v>5590069088.320001</v>
       </c>
       <c r="K52" t="n">
-        <v>36.39173126220703</v>
+        <v>19.67159652709961</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>13.15436172485352</v>
+        <v>9.972298622131348</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>105542</t>
+          <t>141630</t>
         </is>
       </c>
       <c r="O52" t="n">
@@ -8249,12 +8249,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>9/8</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>商业百货</t>
         </is>
       </c>
     </row>
@@ -8267,57 +8267,57 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>605060</t>
+          <t>600405</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>联德股份</t>
+          <t>动力源</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-0.04997501522302628</v>
+        <v>-2.218700408935547</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>6.17</v>
       </c>
       <c r="G53" t="n">
-        <v>22.01</v>
+        <v>6.94</v>
       </c>
       <c r="H53" t="n">
-        <v>271783536</v>
+        <v>954535936</v>
       </c>
       <c r="I53" t="n">
-        <v>4811840000</v>
+        <v>3413709514.16</v>
       </c>
       <c r="J53" t="n">
-        <v>4823680000</v>
+        <v>3781158533.28</v>
       </c>
       <c r="K53" t="n">
-        <v>5.671407699584961</v>
+        <v>27.74987983703613</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>12.79360389709473</v>
+        <v>15.3724250793457</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>141131</t>
+          <t>145541</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -8330,44 +8330,44 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>600860</t>
+          <t>002255</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>京城股份</t>
+          <t>海陆重工</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.4784688949584961</v>
+        <v>2.013422727584839</v>
       </c>
       <c r="F54" t="n">
-        <v>10.5</v>
+        <v>6.08</v>
       </c>
       <c r="G54" t="n">
-        <v>11.5</v>
+        <v>6.56</v>
       </c>
       <c r="H54" t="n">
-        <v>189218857</v>
+        <v>653685696</v>
       </c>
       <c r="I54" t="n">
-        <v>4569930078</v>
+        <v>3878871237.44</v>
       </c>
       <c r="J54" t="n">
-        <v>5750492832</v>
+        <v>5051756820.48</v>
       </c>
       <c r="K54" t="n">
-        <v>4.179465770721436</v>
+        <v>16.73361778259277</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>3.732057332992554</v>
+        <v>5.201342105865479</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>093904</t>
+          <t>131442</t>
         </is>
       </c>
       <c r="O54" t="n">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -8393,44 +8393,44 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>603015</t>
+          <t>600858</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>弘讯科技</t>
+          <t>银座股份</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9.989909172058105</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>10.9</v>
+        <v>5.83</v>
       </c>
       <c r="G55" t="n">
-        <v>10.9</v>
+        <v>5.83</v>
       </c>
       <c r="H55" t="n">
-        <v>132135348</v>
+        <v>193701121</v>
       </c>
       <c r="I55" t="n">
-        <v>4405987100</v>
+        <v>3017305009.07</v>
       </c>
       <c r="J55" t="n">
-        <v>4405987187.2</v>
+        <v>3031988231.36</v>
       </c>
       <c r="K55" t="n">
-        <v>3.034666776657104</v>
+        <v>6.672869682312012</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>4.339051723480225</v>
+        <v>11.69811344146729</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>130306</t>
+          <t>134619</t>
         </is>
       </c>
       <c r="O55" t="n">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>商业百货</t>
         </is>
       </c>
     </row>
@@ -8519,44 +8519,44 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>002187</t>
+          <t>600105</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>广百股份</t>
+          <t>永鼎股份</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>9.972298622131348</v>
+        <v>1.419878244400024</v>
       </c>
       <c r="F57" t="n">
-        <v>7.94</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>7.94</v>
+        <v>5.42</v>
       </c>
       <c r="H57" t="n">
-        <v>765744112</v>
+        <v>654319280</v>
       </c>
       <c r="I57" t="n">
-        <v>4105861070.04</v>
+        <v>7309974010</v>
       </c>
       <c r="J57" t="n">
-        <v>5590069088.320001</v>
+        <v>7309974000</v>
       </c>
       <c r="K57" t="n">
-        <v>19.67159652709961</v>
+        <v>8.930397987365723</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>9.972298622131348</v>
+        <v>6.896551609039307</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>141630</t>
+          <t>132700</t>
         </is>
       </c>
       <c r="O57" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>商业百货</t>
+          <t>通信设备</t>
         </is>
       </c>
     </row>
@@ -8582,44 +8582,44 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>002255</t>
+          <t>600172</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>海陆重工</t>
+          <t>黄河旋风</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.013422727584839</v>
+        <v>2.105263233184814</v>
       </c>
       <c r="F58" t="n">
-        <v>6.08</v>
+        <v>4.85</v>
       </c>
       <c r="G58" t="n">
-        <v>6.56</v>
+        <v>5.23</v>
       </c>
       <c r="H58" t="n">
-        <v>653685696</v>
+        <v>1255626320</v>
       </c>
       <c r="I58" t="n">
-        <v>3878871237.44</v>
+        <v>6189840387.5</v>
       </c>
       <c r="J58" t="n">
-        <v>5051756820.48</v>
+        <v>6994594727.999999</v>
       </c>
       <c r="K58" t="n">
-        <v>16.73361778259277</v>
+        <v>20.3304615020752</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>5.201342105865479</v>
+        <v>9.684209823608398</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>131442</t>
+          <t>103054</t>
         </is>
       </c>
       <c r="O58" t="n">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>非金属材</t>
         </is>
       </c>
     </row>
@@ -8645,44 +8645,44 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>002366</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>华西能源</t>
+          <t>融发核电</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.849002838134766</v>
+        <v>1.931330561637878</v>
       </c>
       <c r="F59" t="n">
-        <v>3.61</v>
+        <v>4.75</v>
       </c>
       <c r="G59" t="n">
-        <v>3.86</v>
+        <v>5.13</v>
       </c>
       <c r="H59" t="n">
-        <v>921004736</v>
+        <v>555590000</v>
       </c>
       <c r="I59" t="n">
-        <v>3825475701.6</v>
+        <v>5968205852.5</v>
       </c>
       <c r="J59" t="n">
-        <v>4262688000</v>
+        <v>9884453828</v>
       </c>
       <c r="K59" t="n">
-        <v>24.12163925170898</v>
+        <v>9.170633316040039</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>9.97150993347168</v>
+        <v>7.29613733291626</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>130112</t>
+          <t>112242</t>
         </is>
       </c>
       <c r="O59" t="n">
@@ -8708,57 +8708,57 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>301486</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>致尚科技</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.885262489318848</v>
+        <v>10.12048244476318</v>
       </c>
       <c r="F60" t="n">
-        <v>50.26</v>
+        <v>4.57</v>
       </c>
       <c r="G60" t="n">
-        <v>59.2</v>
+        <v>4.57</v>
       </c>
       <c r="H60" t="n">
-        <v>833625248</v>
+        <v>261682904</v>
       </c>
       <c r="I60" t="n">
-        <v>3618370944.3</v>
+        <v>2892649222.83</v>
       </c>
       <c r="J60" t="n">
-        <v>6467506808.7</v>
+        <v>2916942378.56</v>
       </c>
       <c r="K60" t="n">
-        <v>23.19572830200195</v>
+        <v>9.049522399902344</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>5.169268131256104</v>
+        <v>1.927710890769958</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>133542</t>
+          <t>093415</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>4/4</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>房地产开</t>
         </is>
       </c>
     </row>
@@ -8771,44 +8771,44 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>600793</t>
+          <t>002175</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>宜宾纸业</t>
+          <t>东方智造</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-2.044790506362915</v>
+        <v>10.12048244476318</v>
       </c>
       <c r="F61" t="n">
-        <v>20.12</v>
+        <v>4.57</v>
       </c>
       <c r="G61" t="n">
-        <v>22.59</v>
+        <v>4.57</v>
       </c>
       <c r="H61" t="n">
-        <v>244553370</v>
+        <v>1318352192</v>
       </c>
       <c r="I61" t="n">
-        <v>3559308520.24</v>
+        <v>5834853647.39</v>
       </c>
       <c r="J61" t="n">
-        <v>3559308520.24</v>
+        <v>5834887890.400001</v>
       </c>
       <c r="K61" t="n">
-        <v>6.899765968322754</v>
+        <v>23.53994941711426</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>5.890944480895996</v>
+        <v>7.951807022094727</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>093452</t>
+          <t>141806</t>
         </is>
       </c>
       <c r="O61" t="n">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>造纸印刷</t>
+          <t>仪器仪表</t>
         </is>
       </c>
     </row>
@@ -8834,44 +8834,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>600858</t>
+          <t>600601</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>银座股份</t>
+          <t>方正科技</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>-2.477477550506592</v>
       </c>
       <c r="F62" t="n">
-        <v>5.83</v>
+        <v>4.33</v>
       </c>
       <c r="G62" t="n">
-        <v>5.83</v>
+        <v>4.88</v>
       </c>
       <c r="H62" t="n">
-        <v>193701121</v>
+        <v>1200988112</v>
       </c>
       <c r="I62" t="n">
-        <v>3017305009.07</v>
+        <v>18057369932.71</v>
       </c>
       <c r="J62" t="n">
-        <v>3031988231.36</v>
+        <v>18057369902.4</v>
       </c>
       <c r="K62" t="n">
-        <v>6.672869682312012</v>
+        <v>6.757143974304199</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>11.69811344146729</v>
+        <v>6.981982231140137</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>134619</t>
+          <t>145231</t>
         </is>
       </c>
       <c r="O62" t="n">
@@ -8879,12 +8879,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>商业百货</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -8960,44 +8960,44 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>300807</t>
+          <t>002122</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天迈科技</t>
+          <t>汇洲智能</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>19.9890022277832</v>
+        <v>10.05747127532959</v>
       </c>
       <c r="F64" t="n">
-        <v>43.64</v>
+        <v>3.83</v>
       </c>
       <c r="G64" t="n">
-        <v>43.64</v>
+        <v>3.83</v>
       </c>
       <c r="H64" t="n">
-        <v>138644280</v>
+        <v>1233524032</v>
       </c>
       <c r="I64" t="n">
-        <v>2140716079.96</v>
+        <v>7613027110.54</v>
       </c>
       <c r="J64" t="n">
-        <v>2969247576.68</v>
+        <v>7661822099.52</v>
       </c>
       <c r="K64" t="n">
-        <v>6.476537704467773</v>
+        <v>16.97731971740723</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>12.35632133483887</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>092500</t>
+          <t>144954</t>
         </is>
       </c>
       <c r="O64" t="n">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -9023,44 +9023,44 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>300943</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>春晖智控</t>
+          <t>瑞和股份</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.681159496307373</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>14.17</v>
+        <v>3.72</v>
       </c>
       <c r="G65" t="n">
-        <v>16.56</v>
+        <v>4.09</v>
       </c>
       <c r="H65" t="n">
-        <v>475367936</v>
+        <v>311062000</v>
       </c>
       <c r="I65" t="n">
-        <v>1903601866.79</v>
+        <v>1172133613.32</v>
       </c>
       <c r="J65" t="n">
-        <v>2888129400</v>
+        <v>1404277680</v>
       </c>
       <c r="K65" t="n">
-        <v>24.66582870483398</v>
+        <v>25.35526084899902</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>9.927536964416504</v>
+        <v>13.17204284667969</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>093930</t>
+          <t>095327</t>
         </is>
       </c>
       <c r="O65" t="n">
@@ -9073,7 +9073,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>装修装饰</t>
         </is>
       </c>
     </row>
@@ -9086,44 +9086,44 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>000010</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>美丽生态</t>
+          <t>华西能源</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.068965435028076</v>
+        <v>2.849002838134766</v>
       </c>
       <c r="F66" t="n">
-        <v>2.96</v>
+        <v>3.61</v>
       </c>
       <c r="G66" t="n">
-        <v>3.19</v>
+        <v>3.86</v>
       </c>
       <c r="H66" t="n">
-        <v>177861793</v>
+        <v>921004736</v>
       </c>
       <c r="I66" t="n">
-        <v>1556816028.56</v>
+        <v>3825475701.6</v>
       </c>
       <c r="J66" t="n">
-        <v>3402970772.48</v>
+        <v>4262688000</v>
       </c>
       <c r="K66" t="n">
-        <v>11.535400390625</v>
+        <v>24.12163925170898</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>8.275861740112305</v>
+        <v>9.97150993347168</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>143948</t>
+          <t>130112</t>
         </is>
       </c>
       <c r="O66" t="n">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>工程建设</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -9149,44 +9149,44 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>301606</t>
+          <t>002717</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>绿联科技</t>
+          <t>岭南股份</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16.8863468170166</v>
+        <v>9.907120704650879</v>
       </c>
       <c r="F67" t="n">
-        <v>47</v>
+        <v>3.55</v>
       </c>
       <c r="G67" t="n">
-        <v>48.25</v>
+        <v>3.55</v>
       </c>
       <c r="H67" t="n">
-        <v>835917232</v>
+        <v>1748929328</v>
       </c>
       <c r="I67" t="n">
-        <v>1466789489</v>
+        <v>5682687634</v>
       </c>
       <c r="J67" t="n">
-        <v>19500760976</v>
+        <v>6461829109.599999</v>
       </c>
       <c r="K67" t="n">
-        <v>60.22220993041992</v>
+        <v>32.11674880981445</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>18.03034019470215</v>
+        <v>10.83591365814209</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>100818</t>
+          <t>142651</t>
         </is>
       </c>
       <c r="O67" t="n">
@@ -9194,12 +9194,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>环保行业</t>
         </is>
       </c>
     </row>
@@ -9212,44 +9212,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>301082</t>
+          <t>002131</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>久盛电气</t>
+          <t>利欧股份</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.401083946228027</v>
+        <v>9.935897827148438</v>
       </c>
       <c r="F68" t="n">
-        <v>16</v>
+        <v>3.43</v>
       </c>
       <c r="G68" t="n">
-        <v>17.71</v>
+        <v>3.43</v>
       </c>
       <c r="H68" t="n">
-        <v>621302928</v>
+        <v>5013594880</v>
       </c>
       <c r="I68" t="n">
-        <v>1463416384</v>
+        <v>20069741990.76</v>
       </c>
       <c r="J68" t="n">
-        <v>3620946784</v>
+        <v>23226263549.44</v>
       </c>
       <c r="K68" t="n">
-        <v>42.59852981567383</v>
+        <v>25.82436943054199</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>6.910569190979004</v>
+        <v>6.730769634246826</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>131712</t>
+          <t>105106</t>
         </is>
       </c>
       <c r="O68" t="n">
@@ -9257,12 +9257,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>互联网服</t>
         </is>
       </c>
     </row>
@@ -9275,57 +9275,57 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>603070</t>
+          <t>002418</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>万控智造</t>
+          <t>康盛股份</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10.02210712432861</v>
+        <v>10.13071918487549</v>
       </c>
       <c r="F69" t="n">
-        <v>14.93</v>
+        <v>3.37</v>
       </c>
       <c r="G69" t="n">
-        <v>14.93</v>
+        <v>3.37</v>
       </c>
       <c r="H69" t="n">
-        <v>67032953</v>
+        <v>966193504</v>
       </c>
       <c r="I69" t="n">
-        <v>1280076327.55</v>
+        <v>3829668000</v>
       </c>
       <c r="J69" t="n">
-        <v>5986930000</v>
+        <v>3829668000</v>
       </c>
       <c r="K69" t="n">
-        <v>5.236637115478516</v>
+        <v>26.11478233337402</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>11.11111164093018</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>094010</t>
+          <t>094000</t>
         </is>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>5/4</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -9338,44 +9338,44 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>000010</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>瑞和股份</t>
+          <t>美丽生态</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>2.068965435028076</v>
       </c>
       <c r="F70" t="n">
-        <v>3.72</v>
+        <v>2.96</v>
       </c>
       <c r="G70" t="n">
-        <v>4.09</v>
+        <v>3.19</v>
       </c>
       <c r="H70" t="n">
-        <v>311062000</v>
+        <v>177861793</v>
       </c>
       <c r="I70" t="n">
-        <v>1172133613.32</v>
+        <v>1556816028.56</v>
       </c>
       <c r="J70" t="n">
-        <v>1404277680</v>
+        <v>3402970772.48</v>
       </c>
       <c r="K70" t="n">
-        <v>25.35526084899902</v>
+        <v>11.535400390625</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>13.17204284667969</v>
+        <v>8.275861740112305</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>095327</t>
+          <t>143948</t>
         </is>
       </c>
       <c r="O70" t="n">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>装修装饰</t>
+          <t>工程建设</t>
         </is>
       </c>
     </row>
@@ -9401,44 +9401,44 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>603813</t>
+          <t>000981</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>原尚股份</t>
+          <t>山子高科</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8554319739341736</v>
+        <v>2.419354677200317</v>
       </c>
       <c r="F71" t="n">
-        <v>11.79</v>
+        <v>2.54</v>
       </c>
       <c r="G71" t="n">
-        <v>12.86</v>
+        <v>2.73</v>
       </c>
       <c r="H71" t="n">
-        <v>51609931</v>
+        <v>3285337008</v>
       </c>
       <c r="I71" t="n">
-        <v>1060416180</v>
+        <v>16573894848.08</v>
       </c>
       <c r="J71" t="n">
-        <v>1238126850</v>
+        <v>25393576279.04</v>
       </c>
       <c r="K71" t="n">
-        <v>4.883813858032227</v>
+        <v>20.63170433044434</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>6.586826801300049</v>
+        <v>12.5</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>102027</t>
+          <t>140912</t>
         </is>
       </c>
       <c r="O71" t="n">
@@ -9446,12 +9446,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>物流行业</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -21357,43 +21357,43 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>301536</t>
+          <t>301603</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>星宸科技</t>
+          <t>乔锋智能</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7.792207717895508</v>
+        <v>-0.8975317478179932</v>
       </c>
       <c r="F58" t="n">
-        <v>83</v>
+        <v>39.75</v>
       </c>
       <c r="G58" t="n">
-        <v>92.40000000000001</v>
+        <v>48.13</v>
       </c>
       <c r="H58" t="n">
-        <v>1018999824</v>
+        <v>66261629</v>
       </c>
       <c r="I58" t="n">
-        <v>3145315461</v>
+        <v>911949866.25</v>
       </c>
       <c r="J58" t="n">
-        <v>34947980000</v>
+        <v>4800210000</v>
       </c>
       <c r="K58" t="n">
-        <v>33.98117446899414</v>
+        <v>7.343963623046875</v>
       </c>
       <c r="L58" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>45492</v>
+        <v>45483</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>45379</v>
+        <v>45483</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -21418,43 +21418,43 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>603285</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>万达轴承</t>
+          <t>键邦股份</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5.779251575469971</v>
+        <v>-0.9924385547637939</v>
       </c>
       <c r="F59" t="n">
-        <v>66.98999999999999</v>
+        <v>20.95</v>
       </c>
       <c r="G59" t="n">
-        <v>82.31999999999999</v>
+        <v>23.28</v>
       </c>
       <c r="H59" t="n">
-        <v>67495012</v>
+        <v>27298455</v>
       </c>
       <c r="I59" t="n">
-        <v>385192500</v>
+        <v>838000000</v>
       </c>
       <c r="J59" t="n">
-        <v>2177317018.8</v>
+        <v>3352000000</v>
       </c>
       <c r="K59" t="n">
-        <v>18.00347900390625</v>
+        <v>3.27749490737915</v>
       </c>
       <c r="L59" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>45492</v>
+        <v>45478</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>45442</v>
+        <v>45478</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -21466,7 +21466,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -21479,43 +21479,43 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>603350</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>安乃达</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.730228900909424</v>
+        <v>0.7221350073814392</v>
       </c>
       <c r="F60" t="n">
-        <v>14.17</v>
+        <v>32.08</v>
       </c>
       <c r="G60" t="n">
-        <v>14.88</v>
+        <v>35.04</v>
       </c>
       <c r="H60" t="n">
-        <v>105791415</v>
+        <v>80605548</v>
       </c>
       <c r="I60" t="n">
-        <v>629813990</v>
+        <v>930320000</v>
       </c>
       <c r="J60" t="n">
-        <v>2519255960</v>
+        <v>3721280000</v>
       </c>
       <c r="K60" t="n">
-        <v>16.99713134765625</v>
+        <v>8.797303199768066</v>
       </c>
       <c r="L60" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>45492</v>
+        <v>45476</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>45302</v>
+        <v>45476</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -21527,7 +21527,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -21540,43 +21540,43 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>301596</t>
+          <t>603381</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>瑞迪智驱</t>
+          <t>永臻股份</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.987831354141235</v>
+        <v>0.7648183703422546</v>
       </c>
       <c r="F61" t="n">
-        <v>94.79000000000001</v>
+        <v>21.08</v>
       </c>
       <c r="G61" t="n">
-        <v>110.45</v>
+        <v>23.01</v>
       </c>
       <c r="H61" t="n">
-        <v>139270196</v>
+        <v>38202430</v>
       </c>
       <c r="I61" t="n">
-        <v>1306160511.22</v>
+        <v>1125307105.2</v>
       </c>
       <c r="J61" t="n">
-        <v>5224642044.88</v>
+        <v>5001363352.08</v>
       </c>
       <c r="K61" t="n">
-        <v>10.82766437530518</v>
+        <v>3.416405200958252</v>
       </c>
       <c r="L61" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>45492</v>
+        <v>45469</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>45425</v>
+        <v>45469</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>光伏设备</t>
         </is>
       </c>
     </row>
@@ -21601,43 +21601,43 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>001359</t>
+          <t>301580</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>平安电工</t>
+          <t>爱迪特</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.152641773223877</v>
+        <v>-1.080388188362122</v>
       </c>
       <c r="F62" t="n">
-        <v>26.1</v>
+        <v>54.02</v>
       </c>
       <c r="G62" t="n">
-        <v>28.11</v>
+        <v>65.53</v>
       </c>
       <c r="H62" t="n">
-        <v>77742526</v>
+        <v>30107689</v>
       </c>
       <c r="I62" t="n">
-        <v>1210518000</v>
+        <v>1027967215.64</v>
       </c>
       <c r="J62" t="n">
-        <v>4841632606.5</v>
+        <v>4111868808.54</v>
       </c>
       <c r="K62" t="n">
-        <v>6.507147312164307</v>
+        <v>2.940841674804688</v>
       </c>
       <c r="L62" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>45492</v>
+        <v>45469</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>45379</v>
+        <v>45469</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>非金属材</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -21662,43 +21662,43 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>001389</t>
+          <t>301565</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>广合科技</t>
+          <t>中仑新材</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.151936411857605</v>
+        <v>-1.723312616348267</v>
       </c>
       <c r="F63" t="n">
-        <v>50.93</v>
+        <v>20.53</v>
       </c>
       <c r="G63" t="n">
-        <v>55.39</v>
+        <v>25.07</v>
       </c>
       <c r="H63" t="n">
-        <v>253756770</v>
+        <v>75619984</v>
       </c>
       <c r="I63" t="n">
-        <v>1938905100</v>
+        <v>1232005300</v>
       </c>
       <c r="J63" t="n">
-        <v>21658746857.44</v>
+        <v>8212205300</v>
       </c>
       <c r="K63" t="n">
-        <v>13.26324939727783</v>
+        <v>6.156508922576904</v>
       </c>
       <c r="L63" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>45492</v>
+        <v>45463</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>45384</v>
+        <v>45463</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -21710,7 +21710,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -21723,43 +21723,43 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>603312</t>
+          <t>301536</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>西典新能</t>
+          <t>星宸科技</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.030605792999268</v>
+        <v>7.792207717895508</v>
       </c>
       <c r="F64" t="n">
-        <v>32.35</v>
+        <v>83</v>
       </c>
       <c r="G64" t="n">
-        <v>35.22</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>26239171</v>
+        <v>1018999824</v>
       </c>
       <c r="I64" t="n">
-        <v>1128580280.7</v>
+        <v>3145315461</v>
       </c>
       <c r="J64" t="n">
-        <v>5227760000</v>
+        <v>34947980000</v>
       </c>
       <c r="K64" t="n">
-        <v>2.347382307052612</v>
+        <v>33.98117446899414</v>
       </c>
       <c r="L64" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>45302</v>
+        <v>45379</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -21771,7 +21771,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -21784,43 +21784,43 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>603344</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>星德胜</t>
+          <t>万达轴承</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9861049056053162</v>
+        <v>5.779251575469971</v>
       </c>
       <c r="F65" t="n">
-        <v>22.53</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>24.54</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>56893609</v>
+        <v>67495012</v>
       </c>
       <c r="I65" t="n">
-        <v>1095695744.85</v>
+        <v>385192500</v>
       </c>
       <c r="J65" t="n">
-        <v>4382782979.400001</v>
+        <v>2177317018.8</v>
       </c>
       <c r="K65" t="n">
-        <v>5.26027250289917</v>
+        <v>18.00347900390625</v>
       </c>
       <c r="L65" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>45371</v>
+        <v>45442</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -21832,7 +21832,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -21845,43 +21845,43 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>603381</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>永臻股份</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.7648183703422546</v>
+        <v>4.730228900909424</v>
       </c>
       <c r="F66" t="n">
-        <v>21.08</v>
+        <v>14.17</v>
       </c>
       <c r="G66" t="n">
-        <v>23.01</v>
+        <v>14.88</v>
       </c>
       <c r="H66" t="n">
-        <v>38202430</v>
+        <v>105791415</v>
       </c>
       <c r="I66" t="n">
-        <v>1125307105.2</v>
+        <v>629813990</v>
       </c>
       <c r="J66" t="n">
-        <v>5001363352.08</v>
+        <v>2519255960</v>
       </c>
       <c r="K66" t="n">
-        <v>3.416405200958252</v>
+        <v>16.99713134765625</v>
       </c>
       <c r="L66" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>45469</v>
+        <v>45302</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -21893,7 +21893,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>光伏设备</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -21906,43 +21906,43 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>603350</t>
+          <t>301596</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>安乃达</t>
+          <t>瑞迪智驱</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.7221350073814392</v>
+        <v>2.987831354141235</v>
       </c>
       <c r="F67" t="n">
-        <v>32.08</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>35.04</v>
+        <v>110.45</v>
       </c>
       <c r="H67" t="n">
-        <v>80605548</v>
+        <v>139270196</v>
       </c>
       <c r="I67" t="n">
-        <v>930320000</v>
+        <v>1306160511.22</v>
       </c>
       <c r="J67" t="n">
-        <v>3721280000</v>
+        <v>5224642044.88</v>
       </c>
       <c r="K67" t="n">
-        <v>8.797303199768066</v>
+        <v>10.82766437530518</v>
       </c>
       <c r="L67" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>45476</v>
+        <v>45425</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -21967,43 +21967,43 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>603082</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>北自科技</t>
+          <t>平安电工</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.682170569896698</v>
+        <v>2.152641773223877</v>
       </c>
       <c r="F68" t="n">
-        <v>32.47</v>
+        <v>26.1</v>
       </c>
       <c r="G68" t="n">
-        <v>35.48</v>
+        <v>28.11</v>
       </c>
       <c r="H68" t="n">
-        <v>60046774</v>
+        <v>77742526</v>
       </c>
       <c r="I68" t="n">
-        <v>1053506034.4</v>
+        <v>1210518000</v>
       </c>
       <c r="J68" t="n">
-        <v>5267528321.21</v>
+        <v>4841632606.5</v>
       </c>
       <c r="K68" t="n">
-        <v>5.758511543273926</v>
+        <v>6.507147312164307</v>
       </c>
       <c r="L68" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>45321</v>
+        <v>45379</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>非金属材</t>
         </is>
       </c>
     </row>
@@ -22028,43 +22028,43 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>603325</t>
+          <t>001389</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>博隆技术</t>
+          <t>广合科技</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.5695235729217529</v>
+        <v>1.151936411857605</v>
       </c>
       <c r="F69" t="n">
-        <v>72.40000000000001</v>
+        <v>50.93</v>
       </c>
       <c r="G69" t="n">
-        <v>79.19</v>
+        <v>55.39</v>
       </c>
       <c r="H69" t="n">
-        <v>34655302</v>
+        <v>253756770</v>
       </c>
       <c r="I69" t="n">
-        <v>1206908000</v>
+        <v>1938905100</v>
       </c>
       <c r="J69" t="n">
-        <v>4826908000</v>
+        <v>21658746857.44</v>
       </c>
       <c r="K69" t="n">
-        <v>2.924415111541748</v>
+        <v>13.26324939727783</v>
       </c>
       <c r="L69" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>45301</v>
+        <v>45384</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -22076,7 +22076,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -22089,43 +22089,43 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>001379</t>
+          <t>603312</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>腾达科技</t>
+          <t>西典新能</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2460629940032959</v>
+        <v>1.030605792999268</v>
       </c>
       <c r="F70" t="n">
-        <v>20.37</v>
+        <v>32.35</v>
       </c>
       <c r="G70" t="n">
-        <v>22.35</v>
+        <v>35.22</v>
       </c>
       <c r="H70" t="n">
-        <v>49220105</v>
+        <v>26239171</v>
       </c>
       <c r="I70" t="n">
-        <v>1018500000</v>
+        <v>1128580280.7</v>
       </c>
       <c r="J70" t="n">
-        <v>4074000000</v>
+        <v>5227760000</v>
       </c>
       <c r="K70" t="n">
-        <v>4.872350215911865</v>
+        <v>2.347382307052612</v>
       </c>
       <c r="L70" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>45310</v>
+        <v>45302</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -22150,43 +22150,43 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>601033</t>
+          <t>603344</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>永兴股份</t>
+          <t>星德胜</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.6593406796455383</v>
+        <v>0.9861049056053162</v>
       </c>
       <c r="F71" t="n">
-        <v>13.56</v>
+        <v>22.53</v>
       </c>
       <c r="G71" t="n">
-        <v>15.02</v>
+        <v>24.54</v>
       </c>
       <c r="H71" t="n">
-        <v>57264289</v>
+        <v>56893609</v>
       </c>
       <c r="I71" t="n">
-        <v>2034000000</v>
+        <v>1095695744.85</v>
       </c>
       <c r="J71" t="n">
-        <v>12204000000</v>
+        <v>4382782979.400001</v>
       </c>
       <c r="K71" t="n">
-        <v>2.819099426269531</v>
+        <v>5.26027250289917</v>
       </c>
       <c r="L71" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>45309</v>
+        <v>45371</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -22198,7 +22198,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>环保行业</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -22211,43 +22211,43 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>301392</t>
+          <t>603082</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>汇成真空</t>
+          <t>北自科技</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-0.6831767559051514</v>
+        <v>0.682170569896698</v>
       </c>
       <c r="F72" t="n">
-        <v>58.15</v>
+        <v>32.47</v>
       </c>
       <c r="G72" t="n">
-        <v>70.26000000000001</v>
+        <v>35.48</v>
       </c>
       <c r="H72" t="n">
-        <v>86174083</v>
+        <v>60046774</v>
       </c>
       <c r="I72" t="n">
-        <v>1308375000</v>
+        <v>1053506034.4</v>
       </c>
       <c r="J72" t="n">
-        <v>5815000000</v>
+        <v>5267528321.21</v>
       </c>
       <c r="K72" t="n">
-        <v>6.654079914093018</v>
+        <v>5.758511543273926</v>
       </c>
       <c r="L72" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>45448</v>
+        <v>45321</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22272,43 +22272,43 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>688530</t>
+          <t>603325</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>欧莱新材</t>
+          <t>博隆技术</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.7432819008827209</v>
+        <v>0.5695235729217529</v>
       </c>
       <c r="F73" t="n">
-        <v>17.36</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>20.99</v>
+        <v>79.19</v>
       </c>
       <c r="H73" t="n">
-        <v>19079496</v>
+        <v>34655302</v>
       </c>
       <c r="I73" t="n">
-        <v>555675649.76</v>
+        <v>1206908000</v>
       </c>
       <c r="J73" t="n">
-        <v>2778378144.64</v>
+        <v>4826908000</v>
       </c>
       <c r="K73" t="n">
-        <v>3.462573528289795</v>
+        <v>2.924415111541748</v>
       </c>
       <c r="L73" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>45421</v>
+        <v>45301</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22333,43 +22333,43 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>301577</t>
+          <t>001379</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>美信科技</t>
+          <t>腾达科技</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.8483754396438599</v>
+        <v>0.2460629940032959</v>
       </c>
       <c r="F74" t="n">
-        <v>54.93</v>
+        <v>20.37</v>
       </c>
       <c r="G74" t="n">
-        <v>66.48</v>
+        <v>22.35</v>
       </c>
       <c r="H74" t="n">
-        <v>38900886</v>
+        <v>49220105</v>
       </c>
       <c r="I74" t="n">
-        <v>609456534.5700001</v>
+        <v>1018500000</v>
       </c>
       <c r="J74" t="n">
-        <v>2431201800</v>
+        <v>4074000000</v>
       </c>
       <c r="K74" t="n">
-        <v>6.42082405090332</v>
+        <v>4.872350215911865</v>
       </c>
       <c r="L74" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>45315</v>
+        <v>45310</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -22394,43 +22394,43 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>301603</t>
+          <t>601033</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>乔锋智能</t>
+          <t>永兴股份</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-0.8975317478179932</v>
+        <v>-0.6593406796455383</v>
       </c>
       <c r="F75" t="n">
-        <v>39.75</v>
+        <v>13.56</v>
       </c>
       <c r="G75" t="n">
-        <v>48.13</v>
+        <v>15.02</v>
       </c>
       <c r="H75" t="n">
-        <v>66261629</v>
+        <v>57264289</v>
       </c>
       <c r="I75" t="n">
-        <v>911949866.25</v>
+        <v>2034000000</v>
       </c>
       <c r="J75" t="n">
-        <v>4800210000</v>
+        <v>12204000000</v>
       </c>
       <c r="K75" t="n">
-        <v>7.343963623046875</v>
+        <v>2.819099426269531</v>
       </c>
       <c r="L75" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>45483</v>
+        <v>45309</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -22442,7 +22442,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>环保行业</t>
         </is>
       </c>
     </row>
@@ -22455,43 +22455,43 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>301539</t>
+          <t>301392</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>宏鑫科技</t>
+          <t>汇成真空</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-0.9507830142974854</v>
+        <v>-0.6831767559051514</v>
       </c>
       <c r="F76" t="n">
-        <v>17.71</v>
+        <v>58.15</v>
       </c>
       <c r="G76" t="n">
-        <v>21.46</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>25560088</v>
+        <v>86174083</v>
       </c>
       <c r="I76" t="n">
-        <v>655270000</v>
+        <v>1308375000</v>
       </c>
       <c r="J76" t="n">
-        <v>2621080000</v>
+        <v>5815000000</v>
       </c>
       <c r="K76" t="n">
-        <v>3.899913549423218</v>
+        <v>6.654079914093018</v>
       </c>
       <c r="L76" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>45397</v>
+        <v>45448</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -22516,43 +22516,43 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>603285</t>
+          <t>688530</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>键邦股份</t>
+          <t>欧莱新材</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-0.9924385547637939</v>
+        <v>-0.7432819008827209</v>
       </c>
       <c r="F77" t="n">
-        <v>20.95</v>
+        <v>17.36</v>
       </c>
       <c r="G77" t="n">
-        <v>23.28</v>
+        <v>20.99</v>
       </c>
       <c r="H77" t="n">
-        <v>27298455</v>
+        <v>19079496</v>
       </c>
       <c r="I77" t="n">
-        <v>838000000</v>
+        <v>555675649.76</v>
       </c>
       <c r="J77" t="n">
-        <v>3352000000</v>
+        <v>2778378144.64</v>
       </c>
       <c r="K77" t="n">
-        <v>3.27749490737915</v>
+        <v>3.462573528289795</v>
       </c>
       <c r="L77" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>45478</v>
+        <v>45421</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -22577,43 +22577,43 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>688709</t>
+          <t>301577</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>成都华微</t>
+          <t>美信科技</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-1.06307590007782</v>
+        <v>-0.8483754396438599</v>
       </c>
       <c r="F78" t="n">
-        <v>27.92</v>
+        <v>54.93</v>
       </c>
       <c r="G78" t="n">
-        <v>33.86</v>
+        <v>66.48</v>
       </c>
       <c r="H78" t="n">
-        <v>201541821</v>
+        <v>38900886</v>
       </c>
       <c r="I78" t="n">
-        <v>2153112614.88</v>
+        <v>609456534.5700001</v>
       </c>
       <c r="J78" t="n">
-        <v>17780768910.08</v>
+        <v>2431201800</v>
       </c>
       <c r="K78" t="n">
-        <v>9.402922630310059</v>
+        <v>6.42082405090332</v>
       </c>
       <c r="L78" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>45329</v>
+        <v>45315</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -22625,7 +22625,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -22638,43 +22638,43 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>301589</t>
+          <t>301539</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>诺瓦星云</t>
+          <t>宏鑫科技</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-1.075460433959961</v>
+        <v>-0.9507830142974854</v>
       </c>
       <c r="F79" t="n">
-        <v>166.49</v>
+        <v>17.71</v>
       </c>
       <c r="G79" t="n">
-        <v>201.96</v>
+        <v>21.46</v>
       </c>
       <c r="H79" t="n">
-        <v>68898920</v>
+        <v>25560088</v>
       </c>
       <c r="I79" t="n">
-        <v>3078333504</v>
+        <v>655270000</v>
       </c>
       <c r="J79" t="n">
-        <v>15391667520</v>
+        <v>2621080000</v>
       </c>
       <c r="K79" t="n">
-        <v>2.244694232940674</v>
+        <v>3.899913549423218</v>
       </c>
       <c r="L79" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>45330</v>
+        <v>45397</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -22699,43 +22699,43 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>301580</t>
+          <t>688709</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>爱迪特</t>
+          <t>成都华微</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1.080388188362122</v>
+        <v>-1.06307590007782</v>
       </c>
       <c r="F80" t="n">
-        <v>54.02</v>
+        <v>27.92</v>
       </c>
       <c r="G80" t="n">
-        <v>65.53</v>
+        <v>33.86</v>
       </c>
       <c r="H80" t="n">
-        <v>30107689</v>
+        <v>201541821</v>
       </c>
       <c r="I80" t="n">
-        <v>1027967215.64</v>
+        <v>2153112614.88</v>
       </c>
       <c r="J80" t="n">
-        <v>4111868808.54</v>
+        <v>17780768910.08</v>
       </c>
       <c r="K80" t="n">
-        <v>2.940841674804688</v>
+        <v>9.402922630310059</v>
       </c>
       <c r="L80" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N80" s="2" t="n">
-        <v>45469</v>
+        <v>45329</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -22760,40 +22760,40 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>688584</t>
+          <t>301589</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>上海合晶</t>
+          <t>诺瓦星云</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-1.14691424369812</v>
+        <v>-1.075460433959961</v>
       </c>
       <c r="F81" t="n">
-        <v>18.1</v>
+        <v>166.49</v>
       </c>
       <c r="G81" t="n">
-        <v>21.97</v>
+        <v>201.96</v>
       </c>
       <c r="H81" t="n">
-        <v>38629113</v>
+        <v>68898920</v>
       </c>
       <c r="I81" t="n">
-        <v>1018751133.3</v>
+        <v>3078333504</v>
       </c>
       <c r="J81" t="n">
-        <v>12044796171.2</v>
+        <v>15391667520</v>
       </c>
       <c r="K81" t="n">
-        <v>3.804669857025146</v>
+        <v>2.244694232940674</v>
       </c>
       <c r="L81" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N81" s="2" t="n">
         <v>45330</v>
@@ -22808,7 +22808,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -22821,43 +22821,43 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>688691</t>
+          <t>688584</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>灿芯股份</t>
+          <t>上海合晶</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-1.566617965698242</v>
+        <v>-1.14691424369812</v>
       </c>
       <c r="F82" t="n">
-        <v>67.23</v>
+        <v>18.1</v>
       </c>
       <c r="G82" t="n">
-        <v>81.95999999999999</v>
+        <v>21.97</v>
       </c>
       <c r="H82" t="n">
-        <v>211111061</v>
+        <v>38629113</v>
       </c>
       <c r="I82" t="n">
-        <v>1714365000</v>
+        <v>1018751133.3</v>
       </c>
       <c r="J82" t="n">
-        <v>8067600000.000001</v>
+        <v>12044796171.2</v>
       </c>
       <c r="K82" t="n">
-        <v>12.37644290924072</v>
+        <v>3.804669857025146</v>
       </c>
       <c r="L82" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>45393</v>
+        <v>45330</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -22882,43 +22882,43 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>301591</t>
+          <t>688691</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>肯特股份</t>
+          <t>灿芯股份</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.574344038963318</v>
+        <v>-1.566617965698242</v>
       </c>
       <c r="F83" t="n">
-        <v>33.76</v>
+        <v>67.23</v>
       </c>
       <c r="G83" t="n">
-        <v>41.16</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>39927229</v>
+        <v>211111061</v>
       </c>
       <c r="I83" t="n">
-        <v>709972800</v>
+        <v>1714365000</v>
       </c>
       <c r="J83" t="n">
-        <v>2839891200</v>
+        <v>8067600000.000001</v>
       </c>
       <c r="K83" t="n">
-        <v>5.664455413818359</v>
+        <v>12.37644290924072</v>
       </c>
       <c r="L83" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N83" s="2" t="n">
-        <v>45350</v>
+        <v>45393</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -22943,43 +22943,43 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>301565</t>
+          <t>301591</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>中仑新材</t>
+          <t>肯特股份</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-1.723312616348267</v>
+        <v>-1.574344038963318</v>
       </c>
       <c r="F84" t="n">
-        <v>20.53</v>
+        <v>33.76</v>
       </c>
       <c r="G84" t="n">
-        <v>25.07</v>
+        <v>41.16</v>
       </c>
       <c r="H84" t="n">
-        <v>75619984</v>
+        <v>39927229</v>
       </c>
       <c r="I84" t="n">
-        <v>1232005300</v>
+        <v>709972800</v>
       </c>
       <c r="J84" t="n">
-        <v>8212205300</v>
+        <v>2839891200</v>
       </c>
       <c r="K84" t="n">
-        <v>6.156508922576904</v>
+        <v>5.664455413818359</v>
       </c>
       <c r="L84" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>45463</v>
+        <v>45350</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -23034,10 +23034,10 @@
         <v>3.930835723876953</v>
       </c>
       <c r="L85" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N85" s="2" t="n">
         <v>45371</v>
@@ -23095,10 +23095,10 @@
         <v>2.793709993362427</v>
       </c>
       <c r="L86" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M86" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N86" s="2" t="n">
         <v>45364</v>
@@ -23156,10 +23156,10 @@
         <v>4.481062412261963</v>
       </c>
       <c r="L87" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N87" s="2" t="n">
         <v>45390</v>
@@ -23217,10 +23217,10 @@
         <v>5.984120845794678</v>
       </c>
       <c r="L88" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N88" s="2" t="n">
         <v>45315</v>
@@ -23278,10 +23278,10 @@
         <v>6.448582172393799</v>
       </c>
       <c r="L89" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N89" s="2" t="n">
         <v>45364</v>
@@ -23339,10 +23339,10 @@
         <v>5.476666450500488</v>
       </c>
       <c r="L90" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M90" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N90" s="2" t="n">
         <v>45307</v>
@@ -23400,10 +23400,10 @@
         <v>6.511479377746582</v>
       </c>
       <c r="L91" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N91" s="2" t="n">
         <v>45450</v>
@@ -23461,10 +23461,10 @@
         <v>13.53860950469971</v>
       </c>
       <c r="L92" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M92" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N92" s="2" t="n">
         <v>45324</v>
@@ -23522,10 +23522,10 @@
         <v>4.131184101104736</v>
       </c>
       <c r="L93" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M93" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N93" s="2" t="n">
         <v>45455</v>
@@ -23583,10 +23583,10 @@
         <v>15.62088775634766</v>
       </c>
       <c r="L94" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="M94" s="2" t="n">
-        <v>45492</v>
+        <v>45462</v>
       </c>
       <c r="N94" s="2" t="n">
         <v>45352</v>
